--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38837C94-5773-48B7-8EA6-08EC1561B9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77132E05-B8EE-46FC-B0BA-A1AFE02C51D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tên đề tài</t>
   </si>
@@ -35,13 +35,31 @@
   </si>
   <si>
     <t>Công nghệ sử dụng</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống kiểm thử tự động</t>
+  </si>
+  <si>
+    <t>Hiện tại đang thực tập tester nên muốn tìm hiểu và học hỏi sâu hơn để áp dụng vào thực tế</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm thử các chức năng của hệ thống giống nhau CRUD </t>
+  </si>
+  <si>
+    <t>-Java, Selenium WebDriver, TestNG.
+- GitHub để quản lý mã nguồn.
+- Excel để báo cáo tiến độ.
+- Trình duyệt Edge/Chrome.</t>
+  </si>
+  <si>
+    <t>Xây dựng bộ kịch bản kiểm thử tự động.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -57,6 +75,20 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,29 +112,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -110,52 +153,31 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF356854"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF356854"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF284E3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF356854"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF284E3F"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -164,31 +186,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -201,6 +271,109 @@
         <name val="Arial"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -229,9 +402,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Trang tính1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="3"/>
-      <tableStyleElement type="firstRowStripe" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -246,13 +419,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Bảng_1" displayName="Bảng_1" ref="A1:E15" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Bảng_1" displayName="Bảng_1" ref="A1:E2" headerRowDxfId="3" dataDxfId="1" totalsRowDxfId="2" headerRowBorderDxfId="8" tableBorderDxfId="9">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên đề tài"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lý do chọn"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mục tiêu"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm vi"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Công nghệ sử dụng"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Tên đề tài" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Lý do chọn" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Mục tiêu" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm vi" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Công nghệ sử dụng" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="Trang tính1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -459,132 +632,152 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="22.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" style="4" customWidth="1"/>
+    <col min="3" max="5" width="22.5703125" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="2" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0004BF3-57BD-471E-BF04-2E42E9E1AE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BD813-A16C-4580-9FB2-091EC6B05EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,14 +45,14 @@
     <t>Nguyễn Chí Thành</t>
   </si>
   <si>
-    <t>Xây dựng hệ thống kiểm thử tự động</t>
-  </si>
-  <si>
     <t>Hệ thống kiểm thử tự động được xây dựng nhằm giảm thời gian kiểm thử thủ công, nâng cao độ chính xác và đảm bảo chất lượng phần mềm. Đề tài áp dụng các công cụ và công nghệ phổ biến để tự động hóa quá trình kiểm thử web, từ đó giúp nhóm phát triển nhanh chóng phát hiện và khắc phục lỗi</t>
   </si>
   <si>
     <t>Tự động đăng nhập vào hệ thống.
 Kiểm thử các chức năng CRUD (Create, Read, Update, Delete).</t>
+  </si>
+  <si>
+    <t>Xây dựng hệ thống kiểm thử tự động với Webdriver và Selenium</t>
   </si>
 </sst>
 </file>
@@ -103,16 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -397,7 +394,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,28 +420,28 @@
         <v>191667</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110BD813-A16C-4580-9FB2-091EC6B05EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F429EEB-4067-46A1-B10C-ADE0F3D428EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Họ tên</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>Xây dựng hệ thống kiểm thử tự động với Webdriver và Selenium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web đặt vé xem phim </t>
+  </si>
+  <si>
+    <t>Tìm kiếm , chọn phòng , chọn ghế , đặt vé …...</t>
   </si>
 </sst>
 </file>
@@ -76,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -99,16 +105,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,20 +413,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.453125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,36 +435,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>191667</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F429EEB-4067-46A1-B10C-ADE0F3D428EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756DF2F2-BA0B-4BA4-A0E0-47F808E31595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Họ tên</t>
   </si>
@@ -53,12 +53,6 @@
   </si>
   <si>
     <t>Xây dựng hệ thống kiểm thử tự động với Webdriver và Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Web đặt vé xem phim </t>
-  </si>
-  <si>
-    <t>Tìm kiếm , chọn phòng , chọn ghế , đặt vé …...</t>
   </si>
 </sst>
 </file>
@@ -82,7 +76,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,32 +99,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -413,21 +391,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="46.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.453125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,43 +413,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>191667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756DF2F2-BA0B-4BA4-A0E0-47F808E31595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8B00F-97E3-40C9-AE2D-C80BF5257D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,14 +45,13 @@
     <t>Nguyễn Chí Thành</t>
   </si>
   <si>
-    <t>Hệ thống kiểm thử tự động được xây dựng nhằm giảm thời gian kiểm thử thủ công, nâng cao độ chính xác và đảm bảo chất lượng phần mềm. Đề tài áp dụng các công cụ và công nghệ phổ biến để tự động hóa quá trình kiểm thử web, từ đó giúp nhóm phát triển nhanh chóng phát hiện và khắc phục lỗi</t>
-  </si>
-  <si>
-    <t>Tự động đăng nhập vào hệ thống.
-Kiểm thử các chức năng CRUD (Create, Read, Update, Delete).</t>
-  </si>
-  <si>
-    <t>Xây dựng hệ thống kiểm thử tự động với Webdriver và Selenium</t>
+    <t xml:space="preserve">web đặt vé xem phim và trang admin quản lý </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -Người dùng có thể vào tìm kiếm và đặt vé các phim muốn xem , thanh toán trực tuyến bằng vnpay   . Admin có thể quản lý phim chiếu , doanh thu</t>
+  </si>
+  <si>
+    <t>Người dùng : Chọn phim , chọn chỗ ngồi , đặt vé , thanh toán onl , xem lại lịch sử , khi thanh toán xong hiện ra hóa đơn                                                                                Admin : xếp phòng chiếu , lịch chiếu , giờ chiếu cho các phim , thống kê doanh thu theo tháng , quý . Xem thống kê tăng giảm doanh thu giữa 2 tháng liền kề hoặc 2 quý liền kề</t>
   </si>
 </sst>
 </file>
@@ -105,11 +104,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,55 +393,55 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="2"/>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>191667</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/docs/intro.xlsx
+++ b/docs/intro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATN_NGUYEN_CHI_THANH\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E8B00F-97E3-40C9-AE2D-C80BF5257D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C8B0520-4757-450D-96CB-CE3CFE22AC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Họ tên</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>Nguyễn Chí Thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web đặt vé xem phim và trang admin quản lý </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -Người dùng có thể vào tìm kiếm và đặt vé các phim muốn xem , thanh toán trực tuyến bằng vnpay   . Admin có thể quản lý phim chiếu , doanh thu</t>
-  </si>
-  <si>
-    <t>Người dùng : Chọn phim , chọn chỗ ngồi , đặt vé , thanh toán onl , xem lại lịch sử , khi thanh toán xong hiện ra hóa đơn                                                                                Admin : xếp phòng chiếu , lịch chiếu , giờ chiếu cho các phim , thống kê doanh thu theo tháng , quý . Xem thống kê tăng giảm doanh thu giữa 2 tháng liền kề hoặc 2 quý liền kề</t>
   </si>
 </sst>
 </file>
@@ -393,18 +384,18 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -412,7 +403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -420,29 +411,23 @@
         <v>191667</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" ht="115" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="114.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
